--- a/medicine/Enfance/Amelie_Fried/Amelie_Fried.xlsx
+++ b/medicine/Enfance/Amelie_Fried/Amelie_Fried.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amelie Fried est née le 6 septembre 1958 à Ulm en Allemagne. Elle est connue en tant que présentatrice du journal télévisé et écrivain. Son père, Kurt Fried, est le fondateur–éditeur de la Schwäbischen Donauzeitung qui appartient aujourd’hui à la Südwest Presse.
-Grand-père s'en est allé[1] est pour l'instant le seul livre d'Amelie Fried traduit en français.
+Grand-père s'en est allé est pour l'instant le seul livre d'Amelie Fried traduit en français.
 En mars 2008, elle a publié Schuhhaus Pallas. Wie meine Familie sich gegen die Nazis wehrte, sorte de memorbuch personnel sur les persécutions que sa famille, de souche juive originaire d'Ulm, a dû subir pendant la période du Troisième Reich. Cet ouvrage connaît un succès médiatique important et fait l'objet de nombreux débats.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Œuvres littéraires
 1996 : Traumfrau mit Nebenwirkungen, Hoffmann und Campe  (ISBN 3-455-02059-3)
